--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st01.xlsx
@@ -1860,7 +1860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sora"]   For example, Ifrit rushed out this morning yelling something like "Here I come, ocean!!" We haven't seen her ever since.
+    <t xml:space="preserve">[name="Sora"]   For example, Ifrit rushed out this morning yelling something like 'Here I come, ocean!!' We haven't seen her ever since.
 </t>
   </si>
   <si>
@@ -1872,7 +1872,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sora"]   As long as there's water and a beach, it's enough of an ocean for me. 
+    <t xml:space="preserve">[name="Sora"]   As long as there's water and a beach, it's enough of an ocean for me. 
 </t>
   </si>
   <si>
@@ -1892,7 +1892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Broadcast"]   Let's first enjoy a cozy Siestan brunch as the merriment of the afternoon approaches us. 
+    <t xml:space="preserve">[name="Broadcast"]   Let's first enjoy a cozy Siestan brunch as the merriment of the afternoon approaches us. 
 </t>
   </si>
   <si>
@@ -1932,7 +1932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Broadcast"]    Speaking of which, Siesta has another special feature - obsidian. 
+    <t xml:space="preserve">[name="Broadcast"]    Speaking of which, Siesta has another special feature - obsidian. 
 </t>
   </si>
   <si>
@@ -1944,7 +1944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Cronin"]   You may have heard rumors or even scientific "theories" from outside, but the reality within Siesta is the best evidence.
+    <t xml:space="preserve">[name="Cronin"]   You may have heard rumors or even scientific 'theories' from outside, but the reality within Siesta is the best evidence.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_st01.xlsx
@@ -1644,7 +1644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   10:10 AM \ Clear
+    <t xml:space="preserve">[name=""]   10:10 A.M. \ Clear
 </t>
   </si>
   <si>
@@ -1732,7 +1732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I didn’t expect it to be this lively here.;They’ve been holding one large event after another.",values="1;2")]
+    <t xml:space="preserve">[Decision(options="I didn't expect it to be this lively here.;They've been holding one large event after another.",values="1;2")]
 </t>
   </si>
   <si>
@@ -1760,7 +1760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I don’t mind a place like this.;Her recommendations are definitely spot on.",values="1;2")]
+    <t xml:space="preserve">[Decision(options="I don't mind a place like this.;Her recommendations are definitely spot on.",values="1;2")]
 </t>
   </si>
   <si>
@@ -1800,7 +1800,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]   No no, that’s not what I meant. I'm not really going to join them!
+    <t xml:space="preserve">[name="Amiya"]   No no, that's not what I meant. I'm not really going to join them!
 </t>
   </si>
   <si>
@@ -1808,7 +1808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="But I don’t think those guys are any better than you.",values="1")]
+    <t xml:space="preserve">[Decision(options="But I don't think those guys are any better than you.",values="1")]
 </t>
   </si>
   <si>
@@ -1976,7 +1976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Wouldn’t it be great if Oripathy could be cured so easily?;Tourist cities always have some way to make a quick buck.",values="1;2")]
+    <t xml:space="preserve">[Decision(options="Wouldn't it be great if Oripathy could be cured so easily?;Tourist cities always have some way to make a quick buck.",values="1;2")]
 </t>
   </si>
   <si>
@@ -2120,7 +2120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="You should go, Amiya.;Don’t stress her out.;Can’t I also help out?",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="You should go, Amiya.;Don't stress her out.;Can't I also help out?",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2172,7 +2172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Amiya should spend more time with her peers.;(Guess I’ll go take a look the beachside open-air hotel by myself.);Maybe I really should change into something a bit more summery…",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="Amiya should spend more time with her peers.;(Guess I'll go take a look the beachside open-air hotel by myself.);Maybe I really should change into something a bit more summery...",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2224,11 +2224,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]   …
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="…",values="1")]
+    <t xml:space="preserve">[name="???"]   ...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="...",values="1")]
 </t>
   </si>
   <si>
@@ -2236,7 +2236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="…I’m a bit scared of sun exposure.",values="1")]
+    <t xml:space="preserve">[Decision(options="...I'm a bit scared of sun exposure.",values="1")]
 </t>
   </si>
   <si>
@@ -2252,7 +2252,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="(Weren’t the drinks supposed to be free?!)",values="1")]
+    <t xml:space="preserve">[Decision(options="(Weren't the drinks supposed to be free?!)",values="1")]
 </t>
   </si>
   <si>
